--- a/scrum.xlsx
+++ b/scrum.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3F824E82-AA66-4E5C-80E5-AF5AC21A74A4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0B44E8-7FF8-4C25-8EBB-F8A7FE619D85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>Desde:</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>RF 3,4 El sistema permitira al administrador cambiar el estado de las gestiones almacenadas en el sistema de informacion .</t>
+  </si>
+  <si>
+    <t>Fecha terminacion</t>
   </si>
 </sst>
 </file>
@@ -324,32 +327,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,32 +395,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,527 +686,722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J29"/>
+  <dimension ref="B3:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
     <col min="7" max="7" width="39.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5">
+      <c r="B4" s="18"/>
+      <c r="C4" s="10">
         <v>43339</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
         <v>43344</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="17"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="17"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="17"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="17"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="17"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="17"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="B14" s="1">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="B15" s="1">
         <v>9</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="17"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="18">
         <v>2</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="14"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5">
+      <c r="B18" s="18"/>
+      <c r="C18" s="25">
         <v>43345</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="25">
         <v>43352</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="24">
+        <v>43348</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
+      <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="17"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
+      <c r="B22" s="1">
         <v>2</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="17"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
+      <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="17"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
+      <c r="B24" s="1">
         <v>4</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="17"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
+      <c r="B25" s="1">
         <v>5</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="17"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
+      <c r="B26" s="1">
         <v>6</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+      <c r="B27" s="1">
         <v>7</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
+      <c r="B28" s="1">
         <v>8</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
+      <c r="B29" s="1">
         <v>9</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
+        <v>3</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="C32" s="10">
+        <v>43348</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="25">
+        <v>43355</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>6</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>7</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>8</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>9</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
+  <mergeCells count="52">
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I3:J4"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
@@ -1201,8 +1413,21 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/scrum.xlsx
+++ b/scrum.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0B44E8-7FF8-4C25-8EBB-F8A7FE619D85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4648E9F9-AB2B-499F-B473-759F2DD3C67A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,6 +341,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,11 +373,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,42 +394,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -701,63 +701,63 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
+      <c r="B3" s="24">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="14" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="10">
+      <c r="B4" s="24"/>
+      <c r="C4" s="21">
         <v>43339</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21">
         <v>43344</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
@@ -772,13 +772,13 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="4"/>
@@ -787,13 +787,13 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="4"/>
@@ -802,13 +802,13 @@
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="4"/>
@@ -817,13 +817,13 @@
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="4"/>
@@ -832,13 +832,13 @@
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="4"/>
@@ -847,13 +847,13 @@
       <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="4"/>
@@ -862,13 +862,13 @@
       <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="4"/>
@@ -877,13 +877,13 @@
       <c r="B14" s="1">
         <v>8</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="4"/>
@@ -892,86 +892,86 @@
       <c r="B15" s="1">
         <v>9</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="18">
+      <c r="B17" s="24">
         <v>2</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="19" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="23" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="9">
         <v>43345</v>
       </c>
       <c r="D18" s="27"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="25">
+      <c r="E18" s="10"/>
+      <c r="F18" s="9">
         <v>43352</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="24">
+      <c r="G18" s="10"/>
+      <c r="H18" s="6">
         <v>43348</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="2" t="s">
         <v>3</v>
       </c>
@@ -986,19 +986,19 @@
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="1"/>
@@ -1009,19 +1009,19 @@
       <c r="B22" s="1">
         <v>2</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="1"/>
@@ -1032,19 +1032,19 @@
       <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="1"/>
@@ -1055,19 +1055,19 @@
       <c r="B24" s="1">
         <v>4</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="1"/>
@@ -1078,19 +1078,19 @@
       <c r="B25" s="1">
         <v>5</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="1"/>
@@ -1101,19 +1101,19 @@
       <c r="B26" s="1">
         <v>6</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="1"/>
@@ -1124,19 +1124,19 @@
       <c r="B27" s="1">
         <v>7</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H27" s="1"/>
@@ -1147,19 +1147,19 @@
       <c r="B28" s="1">
         <v>8</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H28" s="1"/>
@@ -1170,19 +1170,19 @@
       <c r="B29" s="1">
         <v>9</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H29" s="1"/>
@@ -1190,63 +1190,63 @@
       <c r="J29" s="4"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="18">
+      <c r="B31" s="24">
         <v>3</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="19" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="14" t="s">
+      <c r="G31" s="13"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="15"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="18"/>
-      <c r="C32" s="10">
+      <c r="B32" s="24"/>
+      <c r="C32" s="21">
         <v>43348</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="25">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="9">
         <v>43355</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="17"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,11 +1261,11 @@
       <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1274,11 +1274,11 @@
       <c r="B36" s="1">
         <v>2</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1287,11 +1287,11 @@
       <c r="B37" s="1">
         <v>3</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1300,11 +1300,11 @@
       <c r="B38" s="1">
         <v>4</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1313,11 +1313,11 @@
       <c r="B39" s="1">
         <v>5</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1326,11 +1326,11 @@
       <c r="B40" s="1">
         <v>6</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1339,11 +1339,11 @@
       <c r="B41" s="1">
         <v>7</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1352,11 +1352,11 @@
       <c r="B42" s="1">
         <v>8</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1365,35 +1365,27 @@
       <c r="B43" s="1">
         <v>9</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:E31"/>
@@ -1401,18 +1393,8 @@
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="C20:G20"/>
@@ -1420,6 +1402,11 @@
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="I17:J18"/>
     <mergeCell ref="C18:E18"/>
@@ -1428,6 +1415,19 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
